--- a/umit_files/umit_inf.xlsx
+++ b/umit_files/umit_inf.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1KskMnqsN4JNdZ3CMrQ5JtvyHtvVfBUs3jxx7frqFA_g/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Навыки и умения")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1moNvcpeNNe2PJs8ufJ2MHxZ9YyuohggEdgakIGtMtfE/edit"",""УМИТЫ!A:Z"")"),"Навыки и умения")</f>
         <v>Навыки и умения</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_inf.xlsx
+++ b/umit_files/umit_inf.xlsx
@@ -1897,8 +1897,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
         <v>120</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двунаправленные графы")</f>
+        <v>Двунаправленные графы</v>
+      </c>
+      <c r="F21" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
+      </c>
       <c r="G21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с файлом ")</f>
         <v>Работа с файлом </v>
@@ -1961,8 +1967,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
         <v>121</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графы с циклами")</f>
+        <v>Графы с циклами</v>
+      </c>
+      <c r="F22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
+        <v>221</v>
+      </c>
       <c r="G22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вложенные циклы")</f>
         <v>Вложенные циклы</v>
@@ -2019,8 +2031,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
         <v>122</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конкретные функции")</f>
+        <v>Конкретные функции</v>
+      </c>
+      <c r="F23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
+      </c>
       <c r="G23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скобки и приоритет операций в условиях")</f>
         <v>Скобки и приоритет операций в условиях</v>
@@ -2077,8 +2095,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
         <v>123</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы строк")</f>
+        <v>Методы строк</v>
+      </c>
+      <c r="F24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
+        <v>223</v>
+      </c>
       <c r="G24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Срезы ")</f>
         <v>Срезы </v>
@@ -2135,8 +2159,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
         <v>124</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функций наибольший")</f>
+        <v>Функций наибольший</v>
+      </c>
+      <c r="F25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
+      </c>
       <c r="G25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Операции над строками")</f>
         <v>Операции над строками</v>
@@ -2193,8 +2223,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
         <v>125</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функция наименьший")</f>
+        <v>Функция наименьший</v>
+      </c>
+      <c r="F26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
+      </c>
       <c r="G26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы данных")</f>
         <v>Типы данных</v>

--- a/umit_files/umit_inf.xlsx
+++ b/umit_files/umit_inf.xlsx
@@ -388,8 +388,8 @@
         <v>701</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10-ричная сс")</f>
-        <v>10-ричная сс</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10-тичная система")</f>
+        <v>10-тичная система</v>
       </c>
       <c r="R2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),801.0)</f>
@@ -2396,12 +2396,12 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь единиц измерения информации")</f>
-        <v>Связь единиц измерения информации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частота дискретизации ")</f>
+        <v>Частота дискретизации </v>
       </c>
       <c r="D29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
+        <v>129</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2454,12 +2454,12 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частота дискретизации ")</f>
-        <v>Частота дискретизации </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Содержательный подход ")</f>
+        <v>Содержательный подход </v>
       </c>
       <c r="D30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
-        <v>129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2512,12 +2512,12 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Содержательный подход ")</f>
-        <v>Содержательный подход </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Растровые изображения")</f>
+        <v>Растровые изображения</v>
       </c>
       <c r="D31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2564,12 +2564,12 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Растровые изображения")</f>
-        <v>Растровые изображения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Файл и его путь")</f>
+        <v>Файл и его путь</v>
       </c>
       <c r="D32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2616,12 +2616,12 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путь файла/адрес файла в сети")</f>
-        <v>Путь файла/адрес файла в сети</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"URL-адрес")</f>
+        <v>URL-адрес</v>
       </c>
       <c r="D33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2668,12 +2668,12 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Файл ")</f>
-        <v>Файл </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Протокол ")</f>
+        <v>Протокол </v>
       </c>
       <c r="D34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),135.0)</f>
+        <v>135</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2720,12 +2720,12 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сервер")</f>
-        <v>Сервер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с таблицей")</f>
+        <v>Работа с таблицей</v>
       </c>
       <c r="D35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
+        <v>136</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2772,12 +2772,12 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Протокол ")</f>
-        <v>Протокол </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Символ")</f>
+        <v>Символ</v>
       </c>
       <c r="D36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),135.0)</f>
-        <v>135</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2824,12 +2824,12 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с таблицей")</f>
-        <v>Работа с таблицей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однозначное декодирование")</f>
+        <v>Однозначное декодирование</v>
       </c>
       <c r="D37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
-        <v>136</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2876,12 +2876,12 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Символ")</f>
-        <v>Символ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоичный код ")</f>
+        <v>Двоичный код </v>
       </c>
       <c r="D38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2928,12 +2928,12 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однозначное декодирование")</f>
-        <v>Однозначное декодирование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кодовое слово ")</f>
+        <v>Кодовое слово </v>
       </c>
       <c r="D39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2980,12 +2980,12 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоичный код ")</f>
-        <v>Двоичный код </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Посимвольное кодирование")</f>
+        <v>Посимвольное кодирование</v>
       </c>
       <c r="D40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3032,12 +3032,12 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кодовое слово ")</f>
-        <v>Кодовое слово </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равномерный код и неравномерный код")</f>
+        <v>Равномерный код и неравномерный код</v>
       </c>
       <c r="D41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
+        <v>142</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3060,8 +3060,8 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поиск файлов с определенным расширением")</f>
-        <v>Поиск файлов с определенным расширением</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метасимволы и поиск файлов с определённым расширением")</f>
+        <v>Метасимволы и поиск файлов с определённым расширением</v>
       </c>
       <c r="T41" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),940.0)</f>
@@ -3084,12 +3084,12 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Посимвольное кодирование")</f>
-        <v>Посимвольное кодирование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Адрес IP")</f>
+        <v>Адрес IP</v>
       </c>
       <c r="D42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3136,12 +3136,12 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равномерный код и неравномерный код")</f>
-        <v>Равномерный код и неравномерный код</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глобальная сеть")</f>
+        <v>Глобальная сеть</v>
       </c>
       <c r="D43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3188,12 +3188,12 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Адрес IP")</f>
-        <v>Адрес IP</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Локальная сеть")</f>
+        <v>Локальная сеть</v>
       </c>
       <c r="D44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3239,14 +3239,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глобальная сеть")</f>
-        <v>Глобальная сеть</v>
-      </c>
-      <c r="D45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="str">
@@ -3291,14 +3285,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Локальная сеть")</f>
-        <v>Локальная сеть</v>
-      </c>
-      <c r="D46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="str">
@@ -3996,8 +3984,8 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Надстрочный индекс")</f>
-        <v>Надстрочный индекс</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Надстрочный и нижний индексы")</f>
+        <v>Надстрочный и нижний индексы</v>
       </c>
       <c r="T62" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),961.0)</f>
@@ -4036,12 +4024,12 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нижний индекс")</f>
-        <v>Нижний индекс</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Добавление специального символа/формулы")</f>
+        <v>Добавление специального символа/формулы</v>
       </c>
       <c r="T63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),962.0)</f>
-        <v>962</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),963.0)</f>
+        <v>963</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -4076,12 +4064,12 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Добавление специального символа/формулы")</f>
-        <v>Добавление специального символа/формулы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ячейка таблицы")</f>
+        <v>Ячейка таблицы</v>
       </c>
       <c r="T64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),963.0)</f>
-        <v>963</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),964.0)</f>
+        <v>964</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -4116,12 +4104,12 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ячейка таблицы")</f>
-        <v>Ячейка таблицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сноски ")</f>
+        <v>Сноски </v>
       </c>
       <c r="T65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),964.0)</f>
-        <v>964</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),965.0)</f>
+        <v>965</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -4156,12 +4144,12 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сноски ")</f>
-        <v>Сноски </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аннотация ")</f>
+        <v>Аннотация </v>
       </c>
       <c r="T66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),965.0)</f>
-        <v>965</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),966.0)</f>
+        <v>966</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
@@ -4196,12 +4184,12 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аннотация ")</f>
-        <v>Аннотация </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наличие товара ")</f>
+        <v>Наличие товара </v>
       </c>
       <c r="T67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),966.0)</f>
-        <v>966</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),967.0)</f>
+        <v>967</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -4236,12 +4224,12 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наличие товара ")</f>
-        <v>Наличие товара </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"База данных")</f>
+        <v>База данных</v>
       </c>
       <c r="T68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),967.0)</f>
-        <v>967</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),968.0)</f>
+        <v>968</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
@@ -4276,12 +4264,12 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"База данных")</f>
-        <v>База данных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прибыль")</f>
+        <v>Прибыль</v>
       </c>
       <c r="T69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),968.0)</f>
-        <v>968</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),969.0)</f>
+        <v>969</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
@@ -4316,12 +4304,12 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прибыль")</f>
-        <v>Прибыль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выручка")</f>
+        <v>Выручка</v>
       </c>
       <c r="T70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),969.0)</f>
-        <v>969</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),970.0)</f>
+        <v>970</v>
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
@@ -4356,12 +4344,12 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выручка")</f>
-        <v>Выручка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Затраты")</f>
+        <v>Затраты</v>
       </c>
       <c r="T71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),970.0)</f>
-        <v>970</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),971.0)</f>
+        <v>971</v>
       </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -4395,14 +4383,8 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-      <c r="S72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Затраты")</f>
-        <v>Затраты</v>
-      </c>
-      <c r="T72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),971.0)</f>
-        <v>971</v>
-      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
